--- a/submissions.xlsx
+++ b/submissions.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="24">
-  <si>
-    <t>Last Updated: 2023-08-15T02:44:16.375Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
+  <si>
+    <t>Last Updated: 2023-08-15T05:07:23.012Z</t>
   </si>
   <si>
     <t>Anmeldung-Nr</t>
@@ -67,22 +67,61 @@
     <t>Unterschrift</t>
   </si>
   <si>
-    <t>dsfdsagdsagasdgsadgddddddddddd</t>
+    <t>hallo</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>ggg</t>
+  </si>
+  <si>
+    <t>2023-08-01</t>
+  </si>
+  <si>
+    <t>tat</t>
+  </si>
+  <si>
+    <t>tat@gmail.com</t>
+  </si>
+  <si>
+    <t>att</t>
+  </si>
+  <si>
+    <t>atat</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2023-08-15</t>
-  </si>
-  <si>
-    <t>Montag, Mittwoch</t>
-  </si>
-  <si>
     <t>Nein</t>
   </si>
   <si>
     <t>Ja</t>
+  </si>
+  <si>
+    <t>Dienstag, Freitag</t>
+  </si>
+  <si>
+    <t>dsgs</t>
+  </si>
+  <si>
+    <t>gdsg</t>
+  </si>
+  <si>
+    <t>dgd</t>
+  </si>
+  <si>
+    <t>2023-08-13</t>
+  </si>
+  <si>
+    <t>sdg</t>
+  </si>
+  <si>
+    <t>sdg@gmail.com</t>
+  </si>
+  <si>
+    <t>dg</t>
   </si>
 </sst>
 </file>
@@ -151,12 +190,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1143000" cy="1143000"/>
+    <xdr:ext cx="952500" cy="476250"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Picture 1">
@@ -190,12 +229,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1143000" cy="1143000"/>
+    <xdr:ext cx="952500" cy="476250"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 2">
@@ -229,12 +268,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1143000" cy="1143000"/>
+    <xdr:ext cx="952500" cy="476250"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 3">
@@ -268,12 +307,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1143000" cy="1143000"/>
+    <xdr:ext cx="952500" cy="476250"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 4">
@@ -289,6 +328,45 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -630,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="17" width="15" customWidth="1"/>
@@ -694,7 +772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -705,49 +783,49 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -758,49 +836,49 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -811,49 +889,49 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -864,46 +942,99 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/submissions.xlsx
+++ b/submissions.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
-  <si>
-    <t>Last Updated: 2023-08-15T05:07:23.012Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="60">
+  <si>
+    <t>Last Updated: 2023-08-16T19:11:15.824Z</t>
   </si>
   <si>
     <t>Anmeldung-Nr</t>
@@ -67,61 +67,130 @@
     <t>Unterschrift</t>
   </si>
   <si>
-    <t>hallo</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>ggg</t>
+    <t>hhh</t>
+  </si>
+  <si>
+    <t>2023-07-31</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>reniirinyi@icloud.com</t>
+  </si>
+  <si>
+    <t>dsf</t>
+  </si>
+  <si>
+    <t>dsfdf</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>dsf@gmail.com</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>reniirinyi@gmail.com</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>Dienstag, Freitag</t>
+  </si>
+  <si>
+    <t>2023-07-04</t>
+  </si>
+  <si>
+    <t>2023-07-23</t>
+  </si>
+  <si>
+    <t>dg</t>
+  </si>
+  <si>
+    <t>fdh</t>
+  </si>
+  <si>
+    <t>gfhf</t>
   </si>
   <si>
     <t>2023-08-01</t>
   </si>
   <si>
-    <t>tat</t>
-  </si>
-  <si>
-    <t>tat@gmail.com</t>
-  </si>
-  <si>
-    <t>att</t>
-  </si>
-  <si>
-    <t>atat</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Nein</t>
-  </si>
-  <si>
-    <t>Ja</t>
-  </si>
-  <si>
-    <t>Dienstag, Freitag</t>
-  </si>
-  <si>
-    <t>dsgs</t>
-  </si>
-  <si>
-    <t>gdsg</t>
-  </si>
-  <si>
-    <t>dgd</t>
-  </si>
-  <si>
-    <t>2023-08-13</t>
-  </si>
-  <si>
-    <t>sdg</t>
-  </si>
-  <si>
-    <t>sdg@gmail.com</t>
-  </si>
-  <si>
-    <t>dg</t>
+    <t>gh</t>
+  </si>
+  <si>
+    <t>fgh</t>
+  </si>
+  <si>
+    <t>fhg</t>
+  </si>
+  <si>
+    <t>0767728437</t>
+  </si>
+  <si>
+    <t>fdg</t>
+  </si>
+  <si>
+    <t>Montag</t>
+  </si>
+  <si>
+    <t>sdfd</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>sdgf</t>
+  </si>
+  <si>
+    <t>dsg</t>
+  </si>
+  <si>
+    <t>sdfs</t>
+  </si>
+  <si>
+    <t>dfsd</t>
+  </si>
+  <si>
+    <t>f@gadg.com</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>Dienstag</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>ccc@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-08-17</t>
   </si>
 </sst>
 </file>
@@ -367,6 +436,1527 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -708,7 +2298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q46"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="17" width="15" customWidth="1"/>
@@ -780,49 +2370,49 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
       <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
       <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" t="s">
-        <v>28</v>
-      </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -833,49 +2423,49 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
       <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>28</v>
-      </c>
       <c r="Q4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -886,49 +2476,49 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>23</v>
       </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -939,49 +2529,49 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>23</v>
       </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -989,52 +2579,2119 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="J25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J26" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
+      <c r="K26" t="s">
         <v>34</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" t="s">
         <v>34</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K27" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" t="s">
         <v>35</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" t="s">
+        <v>25</v>
+      </c>
+      <c r="P30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
         <v>36</v>
       </c>
-      <c r="K7" t="s">
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" t="s">
+        <v>25</v>
+      </c>
+      <c r="P34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" t="s">
+        <v>25</v>
+      </c>
+      <c r="P35" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" t="s">
+        <v>35</v>
+      </c>
+      <c r="M36" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" t="s">
+        <v>25</v>
+      </c>
+      <c r="P36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" t="s">
+        <v>34</v>
+      </c>
+      <c r="K37" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" t="s">
+        <v>25</v>
+      </c>
+      <c r="P37" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="L7" t="s">
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" t="s">
+        <v>25</v>
+      </c>
+      <c r="P38" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="Q38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39" t="s">
+        <v>51</v>
+      </c>
+      <c r="L39" t="s">
+        <v>56</v>
+      </c>
+      <c r="M39" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39" t="s">
+        <v>25</v>
+      </c>
+      <c r="P39" t="s">
         <v>26</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" t="s">
+        <v>54</v>
+      </c>
+      <c r="J40" t="s">
+        <v>55</v>
+      </c>
+      <c r="K40" t="s">
+        <v>51</v>
+      </c>
+      <c r="L40" t="s">
+        <v>56</v>
+      </c>
+      <c r="M40" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" t="s">
+        <v>25</v>
+      </c>
+      <c r="O40" t="s">
+        <v>25</v>
+      </c>
+      <c r="P40" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" t="s">
+        <v>54</v>
+      </c>
+      <c r="J41" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41" t="s">
+        <v>51</v>
+      </c>
+      <c r="L41" t="s">
+        <v>56</v>
+      </c>
+      <c r="M41" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" t="s">
+        <v>25</v>
+      </c>
+      <c r="P41" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" t="s">
+        <v>54</v>
+      </c>
+      <c r="J42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42" t="s">
+        <v>51</v>
+      </c>
+      <c r="L42" t="s">
+        <v>56</v>
+      </c>
+      <c r="M42" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" t="s">
+        <v>25</v>
+      </c>
+      <c r="P42" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43" t="s">
+        <v>54</v>
+      </c>
+      <c r="J43" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" t="s">
+        <v>51</v>
+      </c>
+      <c r="L43" t="s">
+        <v>56</v>
+      </c>
+      <c r="M43" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" t="s">
+        <v>25</v>
+      </c>
+      <c r="P43" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" t="s">
+        <v>34</v>
+      </c>
+      <c r="H44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" t="s">
+        <v>58</v>
+      </c>
+      <c r="J44" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" t="s">
+        <v>25</v>
+      </c>
+      <c r="P44" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" t="s">
+        <v>58</v>
+      </c>
+      <c r="J45" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" t="s">
+        <v>25</v>
+      </c>
+      <c r="O45" t="s">
+        <v>25</v>
+      </c>
+      <c r="P45" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" ht="37" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" t="s">
+        <v>58</v>
+      </c>
+      <c r="J46" t="s">
+        <v>31</v>
+      </c>
+      <c r="K46" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" t="s">
+        <v>25</v>
+      </c>
+      <c r="O46" t="s">
+        <v>25</v>
+      </c>
+      <c r="P46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
